--- a/src/main/java/testData/LeadTestData.xlsx
+++ b/src/main/java/testData/LeadTestData.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madhusahu/Downloads/Jul24SalesforceAutomationFramework-main/src/main/java/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027CB226-4E56-4B4A-BE06-50C35D9E4E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55195217-D8D9-EF4F-A011-F71F96CECF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="980" windowWidth="26040" windowHeight="16280" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeadMandatoryFeilds" sheetId="2" r:id="rId1"/>
     <sheet name="leadDataWithOptionalFields" sheetId="3" r:id="rId2"/>
     <sheet name="phoneValidation" sheetId="4" r:id="rId3"/>
+    <sheet name="leadDataWithoutEmail" sheetId="5" r:id="rId4"/>
+    <sheet name="leadDataWithoutSecEmail" sheetId="6" r:id="rId5"/>
+    <sheet name="leadDatawithoutAddress" sheetId="7" r:id="rId6"/>
+    <sheet name="leaddataWithoutWebsite" sheetId="8" r:id="rId7"/>
+    <sheet name="leaddatawithoutDesc" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="58">
   <si>
     <t>leadName</t>
   </si>
@@ -162,16 +167,49 @@
     <t>!@#$$%</t>
   </si>
   <si>
-    <t>MTstLd5</t>
-  </si>
-  <si>
-    <t>MTstLd6</t>
+    <t>Verify Lead can be created without Email field</t>
+  </si>
+  <si>
+    <t>Verify Lead can be created without Secondary Email</t>
+  </si>
+  <si>
+    <t>verify lead creation with no address fields</t>
+  </si>
+  <si>
+    <t>VerifyLead Creation withoutWebsite</t>
+  </si>
+  <si>
+    <t>TestLead30</t>
+  </si>
+  <si>
+    <t>TestLead31</t>
+  </si>
+  <si>
+    <t>TestLead32</t>
+  </si>
+  <si>
+    <t>TestLead33</t>
+  </si>
+  <si>
+    <t>TestLead34</t>
+  </si>
+  <si>
+    <t>TestLead35</t>
+  </si>
+  <si>
+    <t>TstL</t>
+  </si>
+  <si>
+    <t>MadhuNinzaCRM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -208,15 +246,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,12 +268,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,6 +302,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E644C546-5974-B248-851B-A60DB25A718E}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -495,7 +570,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -597,7 +672,7 @@
     </row>
     <row r="2" spans="1:19" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -922,4 +997,631 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8888EB2-9D69-8B49-91B4-60EE75186743}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="28" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="70" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H2" s="8">
+        <v>50</v>
+      </c>
+      <c r="I2" s="8">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9876543210</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="8">
+        <v>10001</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE5CBCD-F1E9-C44E-A981-BF694EC610C9}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="28" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="84" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H2" s="8">
+        <v>50</v>
+      </c>
+      <c r="I2" s="8">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9876543210</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="8">
+        <v>10001</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA256038-9B08-EE40-9175-435B1F186183}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="56" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H2" s="8">
+        <v>50</v>
+      </c>
+      <c r="I2" s="8">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9876543210</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A51B41-366B-724B-93EA-5589AB056DAB}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="28" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="56" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8">
+        <v>500000</v>
+      </c>
+      <c r="H2" s="8">
+        <v>50</v>
+      </c>
+      <c r="I2" s="8">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9876543210</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>10001</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450A7CCF-83E3-FB4A-9E18-15825368E056}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="9" width="10.83203125" style="12"/>
+    <col min="10" max="10" width="11.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="28" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="11">
+        <v>500000</v>
+      </c>
+      <c r="H2" s="11">
+        <v>50</v>
+      </c>
+      <c r="I2" s="11">
+        <v>5</v>
+      </c>
+      <c r="J2" s="11">
+        <v>9876543210</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>10001</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{F8F13D63-9CEC-4C48-A8B5-87059D5F7B0B}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{6B6E0EC1-5342-B140-87A4-9B66F2A8EC81}"/>
+    <hyperlink ref="R2" r:id="rId3" xr:uid="{E96FBC24-992F-D745-9685-2ACBC963CD39}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>